--- a/data/trans_camb/P23_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,83</t>
+          <t>-2,82; 6,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,58</t>
+          <t>-6,17; -0,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 10,69</t>
+          <t>-4,99; 3,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 0,34</t>
+          <t>-1,36; 11,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,38</t>
+          <t>-8,1; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,43</t>
+          <t>-5,58; 0,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,53</t>
+          <t>-3,83; 2,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,63</t>
+          <t>-4,31; 2,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,56</t>
+          <t>-0,7; 8,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 3,29</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 2,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 0,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 1,9</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 8,18</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,35; 3,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-75,08%</t>
+          <t>-77,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>149,33%</t>
+          <t>-30,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-70,36%</t>
+          <t>189,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,61%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>123,66%</t>
+          <t>-65,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,2%</t>
+          <t>-13,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,99%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>135,67%</t>
+          <t>167,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-32,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,19%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-46,38%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-31,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>180,51%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-22,65%</t>
         </is>
       </c>
     </row>
@@ -791,7 +929,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,75; 545,23</t>
+          <t>-62,08; 530,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,37 +939,67 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 1034,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-79,75; 228,1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-86,98; 277,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-45,0; 966,21</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,4; 188,4</t>
+          <t>-86,47; 346,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,29; 67,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 495,48</t>
+          <t>-51,79; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-78,15; 91,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-66,84; 192,27</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-85,26; 76,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-82,07; 189,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 827,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-65,52; 85,71</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,46</t>
+          <t>-4,56; 0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,9</t>
+          <t>-2,04; 3,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 13,55</t>
+          <t>-0,88; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 0,03</t>
+          <t>-1,26; 11,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 2,64</t>
+          <t>-6,11; 8,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,41</t>
+          <t>-8,28; 0,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,31</t>
+          <t>-6,37; 2,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,1</t>
+          <t>-6,93; 2,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,61</t>
+          <t>-1,0; 9,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 7,79</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; -0,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 2,59</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 3,33</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 8,26</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 5,99</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-70,28%</t>
+          <t>-72,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>62,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>383,31%</t>
+          <t>158,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-62,53%</t>
+          <t>104,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,6%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-59,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-64,45%</t>
+          <t>-21,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>-42,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>123,26%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-62,42%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,51%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>111,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1275,67 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,49; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-91,94; 17,73</t>
+          <t>-42,91; 610,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,46; 102,21</t>
+          <t>-61,91; 224,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 162,8</t>
+          <t>-92,51; 24,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 3,69</t>
+          <t>-73,09; 105,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,71; 95,37</t>
+          <t>-88,53; 131,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 301,42</t>
+          <t>-40,64; 714,04</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-50,48; 325,43</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-86,81; 14,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-56,85; 125,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-59,66; 165,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,1; 368,84</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-38,29; 153,86</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 5,64</t>
+          <t>-5,72; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 10,32</t>
+          <t>-5,57; 8,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,92</t>
+          <t>-4,86; 8,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -1,39</t>
+          <t>-5,57; 10,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,1</t>
+          <t>-1,41; 13,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,94</t>
+          <t>-7,68; -1,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,67</t>
+          <t>-4,04; 3,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,6</t>
+          <t>-4,56; 2,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,0</t>
+          <t>-3,6; 3,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 1,91</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 1,13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 3,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 3,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 6,57</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 5,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,5%</t>
+          <t>-15,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-73,76%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>-75,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-42,01%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>-18,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-7,39%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-36,59%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-42,06%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,74%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-2,23%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 133,25</t>
+          <t>-62,94; 137,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 211,03</t>
+          <t>-63,8; 193,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 96,19</t>
+          <t>-57,25; 159,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,05; -24,65</t>
+          <t>-53,82; 206,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 86,65</t>
+          <t>-24,77; 339,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 131,81</t>
+          <t>-93,86; -31,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,1; 29,61</t>
+          <t>-54,19; 100,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 96,83</t>
+          <t>-61,03; 96,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 68,1</t>
+          <t>-61,77; 117,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-73,9; 61,0</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-70,49; 36,89</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-46,44; 91,54</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-43,17; 76,84</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-40,94; 135,26</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-37,67; 119,51</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,71</t>
+          <t>-1,44; 7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 5,2</t>
+          <t>-1,9; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,68</t>
+          <t>-1,05; 6,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,93</t>
+          <t>-0,67; 10,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,33</t>
+          <t>-0,47; 11,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,19</t>
+          <t>-6,86; 1,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,62</t>
+          <t>-4,54; 3,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,74</t>
+          <t>-3,99; 5,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,3</t>
+          <t>-7,56; 2,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 1,47</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 2,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 3,23</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 4,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 4,63</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 4,42</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>72,06%</t>
+          <t>71,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-33,31%</t>
+          <t>73,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>-31,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-33,32%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-9,45%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>24,66%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 343,36</t>
+          <t>-41,3; 456,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 268,62</t>
+          <t>-46,01; 303,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 358,18</t>
+          <t>-26,47; 352,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-62,07; 17,15</t>
+          <t>-15,1; 273,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 48,36</t>
+          <t>-14,94; 355,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 106,58</t>
+          <t>-60,21; 21,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 60,1</t>
+          <t>-41,64; 56,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 57,53</t>
+          <t>-34,86; 74,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 121,16</t>
+          <t>-64,25; 30,57</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-64,55; 24,01</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-43,98; 49,17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-33,2; 66,99</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-22,26; 90,65</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-30,12; 78,09</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 71,94</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 0,33</t>
+          <t>-10,18; 0,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 1,27</t>
+          <t>-8,97; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 12,58</t>
+          <t>-6,96; 5,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,54</t>
+          <t>-2,82; 9,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,66</t>
+          <t>-10,03; 3,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,44</t>
+          <t>-4,64; 3,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 0,9</t>
+          <t>-4,19; 4,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,29</t>
+          <t>-3,54; 6,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,69</t>
+          <t>0,24; 11,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 11,34</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 0,96</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 1,46</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 3,97</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 9,23</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 5,56</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-52,59%</t>
+          <t>-52,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-37,16%</t>
+          <t>-36,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>-22,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-31,73%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,48%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>61,74%</t>
+          <t>94,69%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>68,26%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-30,02%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-21,59%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>75,16%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-83,85; 15,91</t>
+          <t>-85,03; 14,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,49; 31,9</t>
+          <t>-74,77; 39,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 267,56</t>
+          <t>-67,22; 129,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,41; 115,28</t>
+          <t>-35,33; 240,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 119,48</t>
+          <t>-58,38; 44,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 231,1</t>
+          <t>-58,03; 132,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-64,19; 23,81</t>
+          <t>-56,63; 132,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,69; 32,7</t>
+          <t>-51,92; 198,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 162,98</t>
+          <t>-5,03; 289,57</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 221,7</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-61,88; 28,56</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-57,87; 36,96</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-45,75; 78,33</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 197,54</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-26,44; 66,9</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 8,38</t>
+          <t>-1,36; 8,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 3,19</t>
+          <t>-4,23; 3,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,56</t>
+          <t>-0,54; 10,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -1,57</t>
+          <t>-9,34; 3,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,75</t>
+          <t>-5,24; 5,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,38</t>
+          <t>-12,1; -1,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,19</t>
+          <t>-10,37; 0,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,12</t>
+          <t>-8,33; 3,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 5,39</t>
+          <t>-5,0; 6,07</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 3,59</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 1,13</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 0,77</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 5,0</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 2,76</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 2,79</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>124,3%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-76,48%</t>
+          <t>-29,86%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-42,59%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>-78,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-30,5%</t>
+          <t>-49,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-33,1%</t>
+          <t>-21,53%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-24,12%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-33,46%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-38,37%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-13,51%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-15,05%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 477,71</t>
+          <t>-45,22; 453,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,63; 232,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 426,68</t>
+          <t>-32,25; 547,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-94,88; -20,62</t>
+          <t>-79,1; 93,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-80,21; 22,15</t>
+          <t>-72,26; 247,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 181,11</t>
+          <t>-95,64; -27,37</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 36,23</t>
+          <t>-82,48; 23,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-69,09; 37,19</t>
+          <t>-74,09; 104,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 151,82</t>
+          <t>-59,83; 198,64</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-69,64; 90,25</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-72,29; 34,75</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-74,62; 22,15</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-48,48; 131,58</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-56,55; 69,97</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-58,63; 68,84</t>
         </is>
       </c>
     </row>
@@ -1933,42 +2701,72 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,15</t>
+          <t>-1,57; 2,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,06</t>
+          <t>-2,15; 1,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,2</t>
+          <t>-0,48; 3,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -1,75</t>
+          <t>-0,02; 5,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,31</t>
+          <t>-1,33; 4,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,64</t>
+          <t>-4,97; -1,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,19</t>
+          <t>-3,2; 0,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,63</t>
+          <t>-2,73; 1,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,79</t>
+          <t>-0,35; 3,53</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 1,85</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; -0,25</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 0,7</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 2,01</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 4,04</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1,99</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-52,65%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>-52,47%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-30,45%</t>
+          <t>-19,66%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-11,3%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-8,34%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-30,38%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>37,8%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 66,47</t>
+          <t>-30,75; 61,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 60,69</t>
+          <t>-41,62; 45,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,76; 147,22</t>
+          <t>-10,39; 104,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,69; -32,55</t>
+          <t>-3,85; 118,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 6,7</t>
+          <t>-17,08; 65,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 69,18</t>
+          <t>-67,05; -31,27</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -4,54</t>
+          <t>-42,24; 10,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 13,59</t>
+          <t>-37,41; 22,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>12,65; 82,99</t>
+          <t>-6,2; 79,57</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 29,5</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-46,73; -5,09</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 16,43</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 43,55</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 82,7</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 30,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
